--- a/MetroGraphe/MetroGraphe/MetroParis.xlsx
+++ b/MetroGraphe/MetroGraphe/MetroParis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://devinci-my.sharepoint.com/personal/aline_ellul_devinci_fr/Documents/Documents/CoursESILV2024/PSI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joach\Documents\ESILV\GITHUB\Projet_Livin-paris\MetroGraphe\MetroGraphe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="8_{2D18A237-38E5-4689-ABE5-79FA11E659EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEEDFCF2-DC8D-481B-8C56-0114B31AC1C4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72E0A66-7918-4777-8E8D-6F77ECB7A725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6A7959BE-A0B4-4EB6-8342-15F77AC26B90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6A7959BE-A0B4-4EB6-8342-15F77AC26B90}"/>
   </bookViews>
   <sheets>
     <sheet name="Noeuds" sheetId="1" r:id="rId1"/>
@@ -2423,9 +2423,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2463,7 +2463,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2569,7 +2569,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2711,7 +2711,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2721,8 +2721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6549EE12-F9D9-4064-922E-DFCA0A3CB738}">
   <dimension ref="A1:G333"/>
   <sheetViews>
-    <sheetView topLeftCell="A309" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:C333"/>
+    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10399,7 +10399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CFEF04-CB9F-4D0E-AA44-E5CDB48F03B4}">
   <dimension ref="A1:F333"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A316" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
